--- a/myTickers.xlsx
+++ b/myTickers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fee33b64e776f60/Documents/Career/Portfolio/Github/Financial_Tools/live_stock_prices_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fee33b64e776f60/Documents/Career/Portfolio/Github/Live_Stock_Prices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_4C43FDF456100BC2808A57B43545E3FDC3AB7973" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5CFE79C2-C5E9-4478-AB94-E70A738373AC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_4C43FDF456100BC2808A57B43545E3FDC3AB7973" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE2D4FA8-6498-44B3-86D3-0B9B8D778E8F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>MSFT</t>
   </si>
   <si>
-    <t>APPL</t>
-  </si>
-  <si>
     <t>VTI</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>Prices</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -402,10 +402,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,12 +420,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
